--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1447730.786337186</v>
+        <v>1445478.706625978</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>180.7169940972972</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>108.2462644793309</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>217.080076868933</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.5491196979327</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.4714269367835</v>
+        <v>357.5738180516799</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81.58403242496151</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>44.808574476792</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.6619297099703</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544808</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991602</v>
+        <v>1.89717711244712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>105.11626575513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>75.00788511618036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.19779014108431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936186</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365919</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922675</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.825382616192478</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820796999</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.338003964586</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1475.375487024174</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.109788417424</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265599</v>
+        <v>2315.404380360519</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.07717600452</v>
+        <v>1941.938622099439</v>
       </c>
       <c r="Y2" t="n">
-        <v>2230.937844028708</v>
+        <v>1941.938622099439</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W4" t="n">
-        <v>852.637315417189</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
@@ -4644,22 +4644,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1378.750404902179</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1089.333234865218</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>861.3436839672011</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>150.3411270669047</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810548</v>
@@ -4817,37 +4817,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,22 +4911,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738568</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459499</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336142</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>285.796379051221</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533107</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845644</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040965</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>580.0655846733332</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454263</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330906</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330906</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765925</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420829</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.67306444377</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787968</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582081</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.49617954512</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471031</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>761.7140495035729</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295058</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>65.5498640939292</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.5977558415268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856704</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529508</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.2291039219447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.7868482065</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26522,46 +26522,46 @@
         <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555773</v>
+        <v>311813.3787555769</v>
       </c>
       <c r="D6" t="n">
-        <v>311813.378755578</v>
+        <v>311813.3787555774</v>
       </c>
       <c r="E6" t="n">
-        <v>63714.88109813597</v>
+        <v>63680.1431727007</v>
       </c>
       <c r="F6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="G6" t="n">
-        <v>389127.3429054915</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054915</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="J6" t="n">
-        <v>171596.1405082141</v>
+        <v>171561.4025827785</v>
       </c>
       <c r="K6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="L6" t="n">
-        <v>389127.3429054915</v>
+        <v>389092.6049800559</v>
       </c>
       <c r="M6" t="n">
-        <v>304072.3149699796</v>
+        <v>304037.5770445442</v>
       </c>
       <c r="N6" t="n">
-        <v>389127.3429054917</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="O6" t="n">
-        <v>389127.3429054918</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="P6" t="n">
-        <v>389127.3429054917</v>
+        <v>389092.6049800558</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>201.2133759749645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>240.9947042380821</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.44292146765798</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911045</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.7665117192701</v>
+        <v>28.66412060437369</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>84.44177583406672</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>207.329068847036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.0719119535103</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318724</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911221</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.476844879432945e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>396.970088694367</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.518932411125</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723487</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125078</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37710,13 +37710,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899044</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
